--- a/BDD/TODO_BDD.xlsx
+++ b/BDD/TODO_BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/BDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57967321-DDC2-2542-8119-480CBBD141A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718A67E-A68C-CB4A-9D2C-42CE15B9FA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{AC9422FE-1AFB-F848-998B-21AF9D0F7280}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tables</t>
   </si>
@@ -60,13 +60,37 @@
     <t>before delete (delete annonces)</t>
   </si>
   <si>
-    <t>before delete (delete photos)</t>
-  </si>
-  <si>
     <t>before delete (delete categories)</t>
   </si>
   <si>
     <t>before delete (tester si pas annonces et deletes criteres)</t>
+  </si>
+  <si>
+    <t>before delete (delete photos et valeurCriteres)</t>
+  </si>
+  <si>
+    <t>before delete (tester si pas valeurCritere)</t>
+  </si>
+  <si>
+    <t>création de la vue globale</t>
+  </si>
+  <si>
+    <t>afficher criteres d'une categorie</t>
+  </si>
+  <si>
+    <t>afficher les catégories d'une surCategorie</t>
+  </si>
+  <si>
+    <t>afficher les annonces d'un user (active/non active)</t>
+  </si>
+  <si>
+    <t>afficher les valeurs pour une annonce</t>
+  </si>
+  <si>
+    <t>pb car si pas de photo pour l'annonce</t>
+  </si>
+  <si>
+    <t>afficher les photos d'une annonce</t>
   </si>
 </sst>
 </file>
@@ -90,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,17 +458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA6E79-1BCB-8F4D-928C-9B9CB17F7C17}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -455,47 +486,73 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BDD/TODO_BDD.xlsx
+++ b/BDD/TODO_BDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/BDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718A67E-A68C-CB4A-9D2C-42CE15B9FA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE9504-15CA-A94D-92D7-EFBAB253E0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{AC9422FE-1AFB-F848-998B-21AF9D0F7280}"/>
   </bookViews>
@@ -87,10 +87,10 @@
     <t>afficher les valeurs pour une annonce</t>
   </si>
   <si>
-    <t>pb car si pas de photo pour l'annonce</t>
-  </si>
-  <si>
     <t>afficher les photos d'une annonce</t>
+  </si>
+  <si>
+    <t>pb car si pas de photo pour l'annonce, l'annonce ne s'affiche pas dans annonce</t>
   </si>
 </sst>
 </file>
@@ -461,13 +461,13 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/BDD/TODO_BDD.xlsx
+++ b/BDD/TODO_BDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/Library/Mobile Documents/com~apple~CloudDocs/COURS_IG2I/COURS/LA2/POO/LeBonCoin/BDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE9504-15CA-A94D-92D7-EFBAB253E0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99E2D0-386D-0943-87D8-825B29AD5B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{AC9422FE-1AFB-F848-998B-21AF9D0F7280}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20580" xr2:uid="{AC9422FE-1AFB-F848-998B-21AF9D0F7280}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +519,7 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
